--- a/OutputData.xlsx
+++ b/OutputData.xlsx
@@ -33,7 +33,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ConfirmPass</t>
+    <t>Confirm Password</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,12 +51,30 @@
     <t>Result</t>
   </si>
   <si>
+    <t>admin465</t>
+  </si>
+  <si>
+    <t>error message is displayed</t>
+  </si>
+  <si>
+    <t>paswadmin</t>
+  </si>
+  <si>
+    <t>testPas1</t>
+  </si>
+  <si>
+    <t>pasw654321</t>
+  </si>
+  <si>
+    <t>tester123456</t>
+  </si>
+  <si>
+    <t>uiop</t>
+  </si>
+  <si>
     <t>UserOne</t>
   </si>
   <si>
-    <t>admin465</t>
-  </si>
-  <si>
     <t>Alexander</t>
   </si>
   <si>
@@ -69,18 +87,12 @@
     <t>SnjaZelc</t>
   </si>
   <si>
-    <t>error message is displayed</t>
-  </si>
-  <si>
     <t>UserTwo</t>
   </si>
   <si>
     <t>admpasw</t>
   </si>
   <si>
-    <t>paswadmin</t>
-  </si>
-  <si>
     <t>Dmitriy</t>
   </si>
   <si>
@@ -96,9 +108,6 @@
     <t>UserThree</t>
   </si>
   <si>
-    <t>testPas1</t>
-  </si>
-  <si>
     <t>Vasiliy</t>
   </si>
   <si>
@@ -117,9 +126,6 @@
     <t>pasw123456</t>
   </si>
   <si>
-    <t>pasw654321</t>
-  </si>
-  <si>
     <t>Olga</t>
   </si>
   <si>
@@ -135,9 +141,6 @@
     <t>UserFive</t>
   </si>
   <si>
-    <t>tester123456</t>
-  </si>
-  <si>
     <t>Irina</t>
   </si>
   <si>
@@ -154,9 +157,6 @@
   </si>
   <si>
     <t>qwerty</t>
-  </si>
-  <si>
-    <t>uiop</t>
   </si>
   <si>
     <t>Lidia</t>
@@ -500,7 +500,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,300 +533,228 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
@@ -841,163 +769,595 @@
         <v>47</v>
       </c>
       <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
